--- a/outputs/10-K.xlsx
+++ b/outputs/10-K.xlsx
@@ -479,22 +479,14 @@
           <t>Cash and cash equivalents</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>10,123</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>7,079</t>
@@ -525,7 +517,7 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Accounts receivable, net of allowance
-of $85 at July 29, 2023 and $83 at July 30, 2022</t>
+of 85 at July 29, 2023 and 83 at July 30, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -748,22 +740,14 @@
           <t>TOTAL ASSETS</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>101,852</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>94,002</t>
@@ -800,22 +784,14 @@
           <t>Short-term debt</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>1,733</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>1,099</t>
@@ -1081,7 +1057,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Preferred stock, $0.001 par value: 5 shares authorized; none issued and outstanding</t>
+          <t>Preferred stock, 0.001 par value: 5 shares authorized; none issued and outstanding</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1101,7 +1077,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Common stock and additional paid-in capital, $0.001 par value: 20,000 shares authorized; 4,066 and 4,110 shares issued and
+          <t>Common stock and additional paid-in capital, 0.001 par value: 20,000 shares authorized; 4,066 and 4,110 shares issued and
 outstanding at July 29, 2023 and July 30, 2022, respectively</t>
         </is>
       </c>
@@ -1185,22 +1161,14 @@
           <t>TOTAL LIABILITIES AND EQUITY</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>101,852</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
           <t>94,002</t>
@@ -1213,20 +1181,25 @@
           <t>Calculation</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>961</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
+      <c r="B40">
+        <f>SUM(B2:B38)</f>
+        <v/>
+      </c>
+      <c r="C40">
+        <f>SUM(B2:B38)</f>
+        <v/>
+      </c>
+      <c r="D40">
+        <f>SUM(B2:B38)</f>
+        <v/>
+      </c>
+      <c r="E40">
+        <f>SUM(B2:B38)</f>
+        <v/>
+      </c>
+      <c r="F40">
+        <f>SUM(B2:B38)</f>
+        <v/>
       </c>
     </row>
     <row r="41">
@@ -1235,11 +1208,26 @@
           <t>Difference</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="B41">
+        <f>B39-B38</f>
+        <v/>
+      </c>
+      <c r="C41">
+        <f>B39-B38</f>
+        <v/>
+      </c>
+      <c r="D41">
+        <f>B39-B38</f>
+        <v/>
+      </c>
+      <c r="E41">
+        <f>B39-B38</f>
+        <v/>
+      </c>
+      <c r="F41">
+        <f>B39-B38</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1305,33 +1293,21 @@
           <t>Product</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>43,142</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>38,018</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>36,014</t>
@@ -1887,33 +1863,21 @@
           <t>NET INCOME</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>12,613</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
           <t>11,812</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
           <t>10,591</t>
@@ -1952,33 +1916,21 @@
           <t>Basic</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>3.08</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
           <t>2.83</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
           <t>2.51</t>
@@ -1991,33 +1943,21 @@
           <t>Diluted</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>3.07</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
           <t>2.82</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
           <t>2.50</t>
@@ -2099,29 +2039,37 @@
           <t>Calculation</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>2062</v>
-      </c>
-      <c r="C32" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1695</v>
-      </c>
-      <c r="F32" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2393</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5.01</v>
+      <c r="B32">
+        <f>SUM(B2:B30)</f>
+        <v/>
+      </c>
+      <c r="C32">
+        <f>SUM(B2:B30)</f>
+        <v/>
+      </c>
+      <c r="D32">
+        <f>SUM(B2:B30)</f>
+        <v/>
+      </c>
+      <c r="E32">
+        <f>SUM(B2:B30)</f>
+        <v/>
+      </c>
+      <c r="F32">
+        <f>SUM(B2:B30)</f>
+        <v/>
+      </c>
+      <c r="G32">
+        <f>SUM(B2:B30)</f>
+        <v/>
+      </c>
+      <c r="H32">
+        <f>SUM(B2:B30)</f>
+        <v/>
+      </c>
+      <c r="I32">
+        <f>SUM(B2:B30)</f>
+        <v/>
       </c>
     </row>
     <row r="33">
@@ -2130,14 +2078,38 @@
           <t>Difference</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="B33">
+        <f>B31-B30</f>
+        <v/>
+      </c>
+      <c r="C33">
+        <f>B31-B30</f>
+        <v/>
+      </c>
+      <c r="D33">
+        <f>B31-B30</f>
+        <v/>
+      </c>
+      <c r="E33">
+        <f>B31-B30</f>
+        <v/>
+      </c>
+      <c r="F33">
+        <f>B31-B30</f>
+        <v/>
+      </c>
+      <c r="G33">
+        <f>B31-B30</f>
+        <v/>
+      </c>
+      <c r="H33">
+        <f>B31-B30</f>
+        <v/>
+      </c>
+      <c r="I33">
+        <f>B31-B30</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2219,7 +2191,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Change in net unrealized gains and losses, net of tax benefit (expense) of $35, $174, and $46 for
+          <t>Change in net unrealized gains and losses, net of tax benefit (expense) of 35, 174, and 46 for
 fiscal 2023, 2022, and 2021, respectively</t>
         </is>
       </c>
@@ -2247,7 +2219,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Net (gains) losses reclassified into earnings, net of tax expense (benefit) of $(4), $5, and $15 for
+          <t>Net (gains) losses reclassified into earnings, net of tax expense (benefit) of (4), 5, and 15 for
 fiscal 2023, 2022, and 2021, respectively</t>
         </is>
       </c>
@@ -2313,7 +2285,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Change in unrealized gains and losses, net of tax benefit (expense) of $(7), $(20), and $(4) for fiscal
+          <t>Change in unrealized gains and losses, net of tax benefit (expense) of (7), (20), and (4) for fiscal
 2023, 2022, and 2021, respectively</t>
         </is>
       </c>
@@ -2341,7 +2313,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Net (gains) losses reclassified into earnings, net of tax (benefit) expense of $15, $7, and $3 for
+          <t>Net (gains) losses reclassified into earnings, net of tax (benefit) expense of 15, 7, and 3 for
 fiscal 2023, 2022, and 2021, respectively</t>
         </is>
       </c>
@@ -2393,7 +2365,7 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Net change in cumulative translation adjustment and actuarial gains and losses, net of tax benefit
-(expense) of $19, $(44), and $(2) for fiscal 2023, 2022, and 2021, respectively</t>
+(expense) of 19, (44), and (2) for fiscal 2023, 2022, and 2021, respectively</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2450,33 +2422,21 @@
           <t>Comprehensive income</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>12,660</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>10,607</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>10,693</t>
@@ -2489,29 +2449,37 @@
           <t>Calculation</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>220</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>112</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>353</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
+      <c r="B13">
+        <f>SUM(B2:B11)</f>
+        <v/>
+      </c>
+      <c r="C13">
+        <f>SUM(B2:B11)</f>
+        <v/>
+      </c>
+      <c r="D13">
+        <f>SUM(B2:B11)</f>
+        <v/>
+      </c>
+      <c r="E13">
+        <f>SUM(B2:B11)</f>
+        <v/>
+      </c>
+      <c r="F13">
+        <f>SUM(B2:B11)</f>
+        <v/>
+      </c>
+      <c r="G13">
+        <f>SUM(B2:B11)</f>
+        <v/>
+      </c>
+      <c r="H13">
+        <f>SUM(B2:B11)</f>
+        <v/>
+      </c>
+      <c r="I13">
+        <f>SUM(B2:B11)</f>
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -2520,14 +2488,38 @@
           <t>Difference</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="B14">
+        <f>B12-B11</f>
+        <v/>
+      </c>
+      <c r="C14">
+        <f>B12-B11</f>
+        <v/>
+      </c>
+      <c r="D14">
+        <f>B12-B11</f>
+        <v/>
+      </c>
+      <c r="E14">
+        <f>B12-B11</f>
+        <v/>
+      </c>
+      <c r="F14">
+        <f>B12-B11</f>
+        <v/>
+      </c>
+      <c r="G14">
+        <f>B12-B11</f>
+        <v/>
+      </c>
+      <c r="H14">
+        <f>B12-B11</f>
+        <v/>
+      </c>
+      <c r="I14">
+        <f>B12-B11</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2593,33 +2585,21 @@
           <t>Net income</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>12,613</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>11,812</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>10,591</t>
@@ -3691,33 +3671,21 @@
           <t>Cash, cash equivalents, restricted cash and restricted cash equivalents, end of fiscal year</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>11,627</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
           <t>8,579</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
           <t>9,942</t>
@@ -3756,33 +3724,21 @@
           <t>Cash paid for interest</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>376</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
           <t>355</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
           <t>438</t>
@@ -3795,33 +3751,21 @@
           <t>Cash paid for income taxes, net</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>3,571</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
           <t>3,663</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
           <t>3,604</t>
@@ -3834,29 +3778,37 @@
           <t>Calculation</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>2495</v>
-      </c>
-      <c r="C49" t="n">
-        <v>376</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2184</v>
-      </c>
-      <c r="F49" t="n">
-        <v>355</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1566</v>
-      </c>
-      <c r="I49" t="n">
-        <v>438</v>
+      <c r="B49">
+        <f>SUM(B2:B47)</f>
+        <v/>
+      </c>
+      <c r="C49">
+        <f>SUM(B2:B47)</f>
+        <v/>
+      </c>
+      <c r="D49">
+        <f>SUM(B2:B47)</f>
+        <v/>
+      </c>
+      <c r="E49">
+        <f>SUM(B2:B47)</f>
+        <v/>
+      </c>
+      <c r="F49">
+        <f>SUM(B2:B47)</f>
+        <v/>
+      </c>
+      <c r="G49">
+        <f>SUM(B2:B47)</f>
+        <v/>
+      </c>
+      <c r="H49">
+        <f>SUM(B2:B47)</f>
+        <v/>
+      </c>
+      <c r="I49">
+        <f>SUM(B2:B47)</f>
+        <v/>
       </c>
     </row>
     <row r="50">
@@ -3865,14 +3817,38 @@
           <t>Difference</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="B50">
+        <f>B48-B47</f>
+        <v/>
+      </c>
+      <c r="C50">
+        <f>B48-B47</f>
+        <v/>
+      </c>
+      <c r="D50">
+        <f>B48-B47</f>
+        <v/>
+      </c>
+      <c r="E50">
+        <f>B48-B47</f>
+        <v/>
+      </c>
+      <c r="F50">
+        <f>B48-B47</f>
+        <v/>
+      </c>
+      <c r="G50">
+        <f>B48-B47</f>
+        <v/>
+      </c>
+      <c r="H50">
+        <f>B48-B47</f>
+        <v/>
+      </c>
+      <c r="I50">
+        <f>B48-B47</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4121,7 +4097,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cash dividends declared ($1.46 per common share)</t>
+          <t>Cash dividends declared (1.46 per common share)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -4246,44 +4222,28 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>42,346</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>(654)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>(417)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t>41,275</t>
@@ -4450,7 +4410,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cash dividends declared ($1.50 per common share)</t>
+          <t>Cash dividends declared (1.50 per common share)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -4551,44 +4511,28 @@
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>42,714</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>(1,319)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>(1,622)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>39,773</t>
@@ -4755,7 +4699,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cash dividends declared ($1.54 per common share)</t>
+          <t>Cash dividends declared (1.54 per common share)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -4852,44 +4796,28 @@
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>44,289</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
           <t>1,639</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>(1,575)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>44,353</t>
@@ -4902,44 +4830,57 @@
           <t>Calculation</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>169</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>149</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2152</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
+      <c r="B30">
+        <f>SUM(B2:B28)</f>
+        <v/>
+      </c>
+      <c r="C30">
+        <f>SUM(B2:B28)</f>
+        <v/>
+      </c>
+      <c r="D30">
+        <f>SUM(B2:B28)</f>
+        <v/>
+      </c>
+      <c r="E30">
+        <f>SUM(B2:B28)</f>
+        <v/>
+      </c>
+      <c r="F30">
+        <f>SUM(B2:B28)</f>
+        <v/>
+      </c>
+      <c r="G30">
+        <f>SUM(B2:B28)</f>
+        <v/>
+      </c>
+      <c r="H30">
+        <f>SUM(B2:B28)</f>
+        <v/>
+      </c>
+      <c r="I30">
+        <f>SUM(B2:B28)</f>
+        <v/>
+      </c>
+      <c r="J30">
+        <f>SUM(B2:B28)</f>
+        <v/>
+      </c>
+      <c r="K30">
+        <f>SUM(B2:B28)</f>
+        <v/>
+      </c>
+      <c r="L30">
+        <f>SUM(B2:B28)</f>
+        <v/>
+      </c>
+      <c r="M30">
+        <f>SUM(B2:B28)</f>
+        <v/>
+      </c>
+      <c r="N30">
+        <f>SUM(B2:B28)</f>
+        <v/>
       </c>
     </row>
     <row r="31">
@@ -4948,19 +4889,58 @@
           <t>Difference</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="B31">
+        <f>B29-B28</f>
+        <v/>
+      </c>
+      <c r="C31">
+        <f>B29-B28</f>
+        <v/>
+      </c>
+      <c r="D31">
+        <f>B29-B28</f>
+        <v/>
+      </c>
+      <c r="E31">
+        <f>B29-B28</f>
+        <v/>
+      </c>
+      <c r="F31">
+        <f>B29-B28</f>
+        <v/>
+      </c>
+      <c r="G31">
+        <f>B29-B28</f>
+        <v/>
+      </c>
+      <c r="H31">
+        <f>B29-B28</f>
+        <v/>
+      </c>
+      <c r="I31">
+        <f>B29-B28</f>
+        <v/>
+      </c>
+      <c r="J31">
+        <f>B29-B28</f>
+        <v/>
+      </c>
+      <c r="K31">
+        <f>B29-B28</f>
+        <v/>
+      </c>
+      <c r="L31">
+        <f>B29-B28</f>
+        <v/>
+      </c>
+      <c r="M31">
+        <f>B29-B28</f>
+        <v/>
+      </c>
+      <c r="N31">
+        <f>B29-B28</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
